--- a/datasets/three_two.xlsx
+++ b/datasets/three_two.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\weswa\Documents\R Working Directory\UnevenCrimeDrop\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{242C728F-F7AF-483B-AEFD-EDD16B3578FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{022C59D0-46FC-4F9A-9108-134A08E1A5DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5055" yWindow="2310" windowWidth="28725" windowHeight="17985" xr2:uid="{A6396F1B-3A75-470A-BD81-2DA8BE8ACEE9}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="38640" windowHeight="21240" xr2:uid="{A6396F1B-3A75-470A-BD81-2DA8BE8ACEE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,10 +51,10 @@
     <t>Female-Theft</t>
   </si>
   <si>
-    <t>Male-Narcotics</t>
+    <t>Female-Drug</t>
   </si>
   <si>
-    <t>Female-Narcotics</t>
+    <t>Male-Drug</t>
   </si>
 </sst>
 </file>
@@ -475,18 +475,18 @@
   <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -506,10 +506,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
